--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19515" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="1845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic rules" sheetId="3" r:id="rId1"/>
     <sheet name="Sprint" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sprint!$A$3:$H$25</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Order</t>
   </si>
@@ -147,6 +148,39 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Sprint 15/2 --&gt; 19/2</t>
+  </si>
+  <si>
+    <t>Learn Eclipse RCP</t>
+  </si>
+  <si>
+    <t>Listen and understand 2 video in ted</t>
+  </si>
+  <si>
+    <t>Give m to mom</t>
+  </si>
+  <si>
+    <t>Finish CA Sign</t>
+  </si>
+  <si>
+    <t>Finish fix bugs and additional requirements</t>
+  </si>
+  <si>
+    <t>F19/2</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>18/2</t>
+  </si>
+  <si>
+    <t>F17/2</t>
   </si>
 </sst>
 </file>
@@ -344,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -486,6 +520,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -854,11 +912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -908,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -924,7 +981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="42" t="s">
         <v>11</v>
@@ -935,7 +992,7 @@
       <c r="F5" s="43"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -954,7 +1011,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -973,7 +1030,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -992,7 +1049,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -1011,7 +1068,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="42" t="s">
         <v>15</v>
@@ -1022,7 +1079,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="44"/>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -1041,7 +1098,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -1058,7 +1115,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -1091,7 +1148,9 @@
       <c r="E14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
@@ -1111,7 +1170,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="42" t="s">
         <v>23</v>
@@ -1122,7 +1181,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>9</v>
       </c>
@@ -1141,7 +1200,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>10</v>
       </c>
@@ -1155,10 +1214,12 @@
       <c r="E18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="27" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>11</v>
       </c>
@@ -1177,7 +1238,7 @@
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="42" t="s">
         <v>27</v>
@@ -1188,7 +1249,7 @@
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
     </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1200,12 +1261,14 @@
       <c r="E21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G21" s="26">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="42" t="s">
         <v>29</v>
@@ -1216,7 +1279,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>13</v>
       </c>
@@ -1230,10 +1293,12 @@
       <c r="E23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>14</v>
       </c>
@@ -1247,10 +1312,12 @@
       <c r="E24" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="42" t="s">
         <v>32</v>
@@ -1261,63 +1328,156 @@
       <c r="F25" s="43"/>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="41"/>
+      <c r="C28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="23">
+        <v>14</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>50</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="41"/>
+      <c r="C29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>50</v>
+      </c>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="50"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="52"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="52"/>
+    </row>
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="G36" s="52"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:H25">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="9/2"/>
-        <filter val="F"/>
-        <filter val="F12/2"/>
-        <filter val="F9/2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="8">
+  <autoFilter ref="A3:H25"/>
+  <mergeCells count="13">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B25:G25"/>
@@ -1327,12 +1487,44 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 F3 F2 F1">
-      <formula1>"OK"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Order</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>F17/2</t>
+  </si>
+  <si>
+    <t>2 hours for Thursday , 2 for thirday and 4 for Saturday and Sunday</t>
   </si>
 </sst>
 </file>
@@ -503,6 +506,36 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -512,38 +545,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -932,11 +935,11 @@
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="47">
+      <c r="C1" s="55">
         <v>2017</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -965,14 +968,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -981,18 +984,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -1030,7 +1033,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -1068,18 +1071,18 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -1115,7 +1118,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="27" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>8</v>
       </c>
@@ -1170,18 +1173,18 @@
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>9</v>
       </c>
@@ -1200,7 +1203,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>10</v>
       </c>
@@ -1219,7 +1222,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="27" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>11</v>
       </c>
@@ -1238,18 +1241,18 @@
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1268,18 +1271,18 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>13</v>
       </c>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>14</v>
       </c>
@@ -1317,25 +1320,25 @@
       </c>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1346,16 +1349,16 @@
     </row>
     <row r="27" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="27" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16" t="s">
@@ -1368,7 +1371,9 @@
         <v>50</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1383,101 +1388,100 @@
         <v>50</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="52"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="52"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="54" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="52"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="13">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B25:G25"/>
@@ -1486,6 +1490,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,12 +521,24 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -536,17 +548,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -935,11 +938,11 @@
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="55">
+      <c r="C1" s="52">
         <v>2017</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -972,10 +975,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -986,14 +989,14 @@
     </row>
     <row r="5" spans="1:8" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1073,14 +1076,14 @@
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1175,14 +1178,14 @@
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1243,14 +1246,14 @@
     </row>
     <row r="20" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1273,14 +1276,14 @@
     </row>
     <row r="22" spans="1:8" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1322,23 +1325,23 @@
     </row>
     <row r="25" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1349,10 +1352,10 @@
     </row>
     <row r="27" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
@@ -1394,10 +1397,10 @@
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
@@ -1418,10 +1421,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
@@ -1439,15 +1442,15 @@
       </c>
       <c r="F33" s="46"/>
       <c r="G33" s="43">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
@@ -1464,7 +1467,9 @@
         <v>53</v>
       </c>
       <c r="F35" s="46"/>
-      <c r="G35" s="43"/>
+      <c r="G35" s="56">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1482,6 +1487,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="13">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B25:G25"/>
@@ -1490,11 +1500,6 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Order</t>
   </si>
@@ -184,6 +184,66 @@
   </si>
   <si>
     <t>2 hours for Thursday , 2 for thirday and 4 for Saturday and Sunday</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Sprint 20/2 --&gt; 26/2</t>
+  </si>
+  <si>
+    <t>Finish Learn RCP</t>
+  </si>
+  <si>
+    <t>Update C &amp; send to Bos</t>
+  </si>
+  <si>
+    <t>Practise talking English (5 commons questions)</t>
+  </si>
+  <si>
+    <t>Start write docs for investment module</t>
+  </si>
+  <si>
+    <t>Experiences</t>
+  </si>
+  <si>
+    <t>1. Really give this plan the highest priority. Finish it before doing anything else. 
+2. No play chess because it take all times of mine.
+3. No say out loud with my wife. No being angry
+4. Push push push my self finish this plan before doing anything else</t>
+  </si>
+  <si>
+    <t>20/2</t>
+  </si>
+  <si>
+    <t>21/2</t>
+  </si>
+  <si>
+    <t>Learn UML</t>
+  </si>
+  <si>
+    <t>21/2 + 24/2 (2 Q); 22/2(2Q) + 25/2; 23/2 + 26/2(2Q)</t>
+  </si>
+  <si>
+    <t>Read a RCP project (small)</t>
+  </si>
+  <si>
+    <t>22/2 + 23/2</t>
+  </si>
+  <si>
+    <t>24/2 + 25/2</t>
+  </si>
+  <si>
+    <t>Run 20 km</t>
+  </si>
+  <si>
+    <t>20/2 --&gt; 24/2: 4km/day</t>
+  </si>
+  <si>
+    <t>22/2</t>
+  </si>
+  <si>
+    <t>21/2 start. 25/2 finish</t>
   </si>
 </sst>
 </file>
@@ -316,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -376,12 +436,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,6 +627,24 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -530,26 +654,32 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -933,26 +1063,28 @@
     <col min="5" max="5" width="22" style="37" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="33" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="31"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="9" width="42.42578125" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="52">
+      <c r="C1" s="56">
         <v>2017</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="21"/>
       <c r="D2" s="2"/>
       <c r="E2" s="37"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,18 +1099,22 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="58"/>
+      <c r="I3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -987,18 +1123,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -1017,7 +1153,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -1036,7 +1172,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="22" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -1055,7 +1191,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -1074,18 +1210,18 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -1104,7 +1240,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="22" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -1121,7 +1257,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>6</v>
       </c>
@@ -1140,7 +1276,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -1159,7 +1295,7 @@
       </c>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="27" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>8</v>
       </c>
@@ -1176,18 +1312,18 @@
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>9</v>
       </c>
@@ -1206,7 +1342,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>10</v>
       </c>
@@ -1225,7 +1361,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="27" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>11</v>
       </c>
@@ -1244,18 +1380,18 @@
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1274,18 +1410,18 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>13</v>
       </c>
@@ -1304,7 +1440,7 @@
       </c>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>14</v>
       </c>
@@ -1323,45 +1459,50 @@
       </c>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="59" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="59"/>
+    </row>
+    <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" s="27" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="H27" s="26"/>
+      <c r="I27" s="61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="27" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16" t="s">
@@ -1373,12 +1514,18 @@
       <c r="E28" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="G28" s="26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="H28" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="26"/>
       <c r="C29" s="16" t="s">
@@ -1390,23 +1537,31 @@
       <c r="E29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G29" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="26"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44" t="s">
@@ -1416,21 +1571,27 @@
       <c r="E31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="43"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="43"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
       <c r="C33" s="44" t="s">
@@ -1440,23 +1601,31 @@
       <c r="E33" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G33" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H33" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="43"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44" t="s">
@@ -1466,12 +1635,16 @@
       <c r="E35" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="56">
+      <c r="F35" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="47">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="H35" s="43"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="43"/>
       <c r="C36" s="44" t="s">
@@ -1481,17 +1654,200 @@
       <c r="E36" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+    </row>
+    <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="47"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="46"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H25"/>
-  <mergeCells count="13">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+  <mergeCells count="19">
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B25:G25"/>
@@ -1500,6 +1856,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Order</t>
   </si>
@@ -630,6 +630,24 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -645,6 +663,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,30 +679,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1070,11 +1070,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="56">
+      <c r="C1" s="64">
         <v>2017</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="10" t="s">
         <v>61</v>
       </c>
@@ -1111,10 +1111,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1125,14 +1125,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1212,14 +1212,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1314,14 +1314,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1382,14 +1382,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1412,14 +1412,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1461,44 +1461,44 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="59"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
       <c r="G28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="62"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1543,23 +1543,23 @@
       <c r="G29" s="26">
         <v>1</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="62"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1576,20 +1576,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="62"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="62"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1610,20 +1610,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="62"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="62"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1642,7 +1642,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="62"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1661,16 +1661,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="63"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1724,10 +1724,12 @@
         <v>58</v>
       </c>
       <c r="D41" s="42"/>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
     </row>
@@ -1761,10 +1763,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="52"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="42"/>
       <c r="E44" s="45"/>
       <c r="F44" s="46"/>
@@ -1782,15 +1784,17 @@
         <v>71</v>
       </c>
       <c r="F45" s="46"/>
-      <c r="G45" s="43"/>
+      <c r="G45" s="43">
+        <v>4</v>
+      </c>
       <c r="H45" s="47"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="42"/>
       <c r="E46" s="45"/>
       <c r="F46" s="46"/>
@@ -1807,7 +1811,9 @@
       <c r="E47" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G47" s="47"/>
       <c r="H47" s="43"/>
     </row>
@@ -1842,11 +1848,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -1856,11 +1862,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Order</t>
   </si>
@@ -639,6 +639,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -647,39 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1070,11 +1070,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="64">
+      <c r="C1" s="61">
         <v>2017</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="10" t="s">
         <v>61</v>
       </c>
@@ -1111,10 +1111,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1125,14 +1125,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1212,14 +1212,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1314,14 +1314,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1382,14 +1382,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1412,14 +1412,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1461,23 +1461,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1489,16 +1489,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="62" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1546,20 +1546,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="52"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1576,20 +1576,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1610,20 +1610,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1642,7 +1642,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1661,16 +1661,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="53"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1699,7 +1699,9 @@
       <c r="E39" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
     </row>
@@ -1763,10 +1765,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="58"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="42"/>
       <c r="E44" s="45"/>
       <c r="F44" s="46"/>
@@ -1785,16 +1787,16 @@
       </c>
       <c r="F45" s="46"/>
       <c r="G45" s="43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H45" s="47"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="42"/>
       <c r="E46" s="45"/>
       <c r="F46" s="46"/>
@@ -1827,7 +1829,9 @@
       <c r="E48" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G48" s="47"/>
       <c r="H48" s="43"/>
     </row>
@@ -1848,11 +1852,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -1862,11 +1866,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>Order</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>III</t>
-  </si>
-  <si>
-    <t>Sprint 20/2 --&gt; 26/2</t>
   </si>
   <si>
     <t>Finish Learn RCP</t>
@@ -244,6 +241,60 @@
   </si>
   <si>
     <t>21/2 start. 25/2 finish</t>
+  </si>
+  <si>
+    <t>Sprint 20/2 --&gt; 3/3</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Practise write code (small argorithm questions)</t>
+  </si>
+  <si>
+    <t>Read Code Agent Server</t>
+  </si>
+  <si>
+    <t>Read Code SentifiTest</t>
+  </si>
+  <si>
+    <t>Read again requirement of the company</t>
+  </si>
+  <si>
+    <t>Read FE: OS, Network, C, Web, Sercurity, Database, Protocol (HTTP, TCP, UDP…), Webservice, OOP, CTDL va GT…</t>
+  </si>
+  <si>
+    <t>23/2</t>
+  </si>
+  <si>
+    <t>1 hour/day</t>
+  </si>
+  <si>
+    <t>Listen English</t>
+  </si>
+  <si>
+    <t>20 minutes/day</t>
+  </si>
+  <si>
+    <t>40 minutes/day</t>
+  </si>
+  <si>
+    <t>2 hour/day</t>
+  </si>
+  <si>
+    <t>26/2</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Ted talk, elllo.org, youtube</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -639,6 +690,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -671,15 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1070,11 +1121,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="61">
+      <c r="C1" s="64">
         <v>2017</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1099,22 +1150,22 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1125,14 +1176,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1212,14 +1263,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1314,14 +1365,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1382,14 +1433,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1412,14 +1463,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1461,23 +1512,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1489,17 +1540,17 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="62" t="s">
-        <v>62</v>
+      <c r="I27" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="27" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
@@ -1523,7 +1574,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="63"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1546,20 +1597,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="63"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1576,20 +1627,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="63"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="63"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1610,20 +1661,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1642,7 +1693,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1661,16 +1712,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="64"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="52"/>
+      <c r="B37" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="55"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1679,10 +1730,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1693,11 +1744,11 @@
       <c r="A39" s="42"/>
       <c r="B39" s="43"/>
       <c r="C39" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>42</v>
@@ -1709,13 +1760,15 @@
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="46"/>
+        <v>67</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
     </row>
@@ -1723,11 +1776,11 @@
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>42</v>
@@ -1735,128 +1788,228 @@
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
       <c r="C42" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
       <c r="C43" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="45" t="s">
         <v>65</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="45" t="s">
-        <v>69</v>
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
-      <c r="B44" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>83</v>
+      </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46"/>
-      <c r="G44" s="43"/>
+      <c r="G44" s="43" t="s">
+        <v>89</v>
+      </c>
       <c r="H44" s="43"/>
     </row>
     <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
       <c r="C45" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="45" t="s">
-        <v>71</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="45"/>
       <c r="F45" s="46"/>
-      <c r="G45" s="43">
-        <v>7</v>
-      </c>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="43"/>
+    </row>
+    <row r="46" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="E46" s="45"/>
       <c r="F46" s="46"/>
-      <c r="G46" s="43"/>
+      <c r="G46" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="H46" s="43"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="E47" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="47"/>
+        <v>86</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="43"/>
     </row>
-    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
       <c r="C48" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="E48" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="47"/>
+        <v>86</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
       <c r="C49" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="E49" s="45" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="58"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+    </row>
+    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="43">
+        <v>11</v>
+      </c>
+      <c r="H51" s="47"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="58"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="47"/>
+      <c r="H53" s="43"/>
+    </row>
+    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="47"/>
+      <c r="H54" s="43"/>
+    </row>
+    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -1866,11 +2019,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1879,7 +2032,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$2</xm:f>
+            <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -1891,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,6 +2062,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Order</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Read Jquery + PhP + Python</t>
+  </si>
+  <si>
+    <t>Read about Agrena</t>
   </si>
 </sst>
 </file>
@@ -690,6 +696,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,39 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1121,11 +1127,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="64">
+      <c r="C1" s="61">
         <v>2017</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,10 +1156,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1162,10 +1168,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1176,14 +1182,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1263,14 +1269,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1365,14 +1371,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1433,14 +1439,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1463,14 +1469,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1512,23 +1518,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1540,16 +1546,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1574,7 +1580,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1597,20 +1603,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="52"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1627,20 +1633,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1661,20 +1667,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1693,7 +1699,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1712,16 +1718,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="53"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1730,10 +1736,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1872,7 +1878,7 @@
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="44" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D47" s="42" t="s">
         <v>87</v>
@@ -1888,10 +1894,10 @@
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
       <c r="C48" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" s="45" t="s">
         <v>86</v>
@@ -1900,116 +1906,148 @@
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
     </row>
-    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
       <c r="C49" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="45"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>80</v>
+      </c>
       <c r="F50" s="46"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
     </row>
-    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
       <c r="C51" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="E51" s="45" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F51" s="46"/>
-      <c r="G51" s="43">
-        <v>11</v>
-      </c>
-      <c r="H51" s="47"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="58"/>
+      <c r="B52" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="55"/>
       <c r="D52" s="42"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
       <c r="C53" s="44" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D53" s="42"/>
       <c r="E53" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="43"/>
-    </row>
-    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="43">
+        <v>11</v>
+      </c>
+      <c r="H53" s="47"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44" t="s">
-        <v>49</v>
-      </c>
+      <c r="B54" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="55"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="47"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="43"/>
     </row>
-    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="47"/>
+      <c r="H55" s="43"/>
+    </row>
+    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="47"/>
+      <c r="H56" s="43"/>
+    </row>
+    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -2019,11 +2057,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="1845" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19485" windowHeight="1845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic rules" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>Order</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Read again requirement of the company</t>
   </si>
   <si>
-    <t>Read FE: OS, Network, C, Web, Sercurity, Database, Protocol (HTTP, TCP, UDP…), Webservice, OOP, CTDL va GT…</t>
-  </si>
-  <si>
     <t>23/2</t>
   </si>
   <si>
@@ -294,13 +291,19 @@
     <t>Ted talk, elllo.org, youtube</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Read Jquery + PhP + Python</t>
   </si>
   <si>
     <t>Read about Agrena</t>
+  </si>
+  <si>
+    <t>Read FE, Argorithm ebook</t>
+  </si>
+  <si>
+    <t>Read FE + SW</t>
+  </si>
+  <si>
+    <t>Read FE: OS, Network, C, Web, Sercurity, Database, Protocol (HTTP, TCP, UDP…), Webservice, OOP, CTDL va GT, OS (Win, Linux), Logic thinking</t>
   </si>
 </sst>
 </file>
@@ -696,6 +699,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -728,15 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1127,11 +1130,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="61">
+      <c r="C1" s="64">
         <v>2017</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1156,10 +1159,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1168,10 +1171,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1182,14 +1185,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1269,14 +1272,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1371,14 +1374,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1439,14 +1442,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1469,14 +1472,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1518,23 +1521,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1546,16 +1549,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="51" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1580,7 +1583,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="63"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1603,20 +1606,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="63"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1633,20 +1636,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="63"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="63"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1667,20 +1670,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1699,7 +1702,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1718,16 +1721,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="64"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1736,17 +1739,17 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="43"/>
       <c r="C39" s="44" t="s">
@@ -1762,7 +1765,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44" t="s">
@@ -1778,7 +1781,7 @@
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44" t="s">
@@ -1794,7 +1797,7 @@
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
       <c r="C42" s="44" t="s">
@@ -1817,7 +1820,7 @@
         <v>58</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>65</v>
@@ -1830,15 +1833,15 @@
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
       <c r="C44" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="42" t="s">
         <v>82</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>83</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46"/>
       <c r="G44" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" s="43"/>
     </row>
@@ -1849,28 +1852,28 @@
         <v>75</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46"/>
       <c r="G45" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" s="43"/>
     </row>
-    <row r="46" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="C46" s="44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="45"/>
       <c r="F46" s="46"/>
       <c r="G46" s="43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H46" s="43"/>
     </row>
@@ -1878,13 +1881,13 @@
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="46"/>
       <c r="G47" s="43"/>
@@ -1897,10 +1900,10 @@
         <v>76</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="43"/>
@@ -1913,53 +1916,57 @@
         <v>77</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
     </row>
-    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
       <c r="C50" s="44" t="s">
         <v>78</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
       <c r="C51" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="55"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="42"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
@@ -1984,17 +1991,17 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="55"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="42"/>
       <c r="E54" s="45"/>
       <c r="F54" s="46"/>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44" t="s">
@@ -2010,7 +2017,7 @@
       <c r="G55" s="47"/>
       <c r="H55" s="43"/>
     </row>
-    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
       <c r="C56" s="44" t="s">
@@ -2043,11 +2050,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -2057,11 +2064,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19485" windowHeight="1845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="1845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic rules" sheetId="3" r:id="rId1"/>
@@ -699,6 +699,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -707,39 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1130,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="64">
+      <c r="C1" s="61">
         <v>2017</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1171,10 +1171,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1185,14 +1185,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1272,14 +1272,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1374,14 +1374,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1442,14 +1442,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1472,14 +1472,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1521,23 +1521,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1606,20 +1606,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="52"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1636,20 +1636,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1670,20 +1670,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1702,7 +1702,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1721,16 +1721,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="53"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="42"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="58"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="42"/>
       <c r="E54" s="45"/>
       <c r="F54" s="46"/>
@@ -2050,11 +2050,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -2064,11 +2064,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -699,6 +699,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -731,15 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1130,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="61">
+      <c r="C1" s="64">
         <v>2017</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1171,10 +1171,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1185,14 +1185,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1272,14 +1272,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1374,14 +1374,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1442,14 +1442,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1472,14 +1472,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1521,23 +1521,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="51" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="63"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1606,20 +1606,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="63"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1636,20 +1636,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="63"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="63"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1670,20 +1670,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1702,7 +1702,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1721,16 +1721,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="64"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="55"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="42"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="55"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="42"/>
       <c r="E54" s="45"/>
       <c r="F54" s="46"/>
@@ -2050,11 +2050,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="19">
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -2064,11 +2064,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>Order</t>
   </si>
@@ -304,13 +304,61 @@
   </si>
   <si>
     <t>Read FE: OS, Network, C, Web, Sercurity, Database, Protocol (HTTP, TCP, UDP…), Webservice, OOP, CTDL va GT, OS (Win, Linux), Logic thinking</t>
+  </si>
+  <si>
+    <t>Good week</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Sprint 10/03 --&gt; 19/03</t>
+  </si>
+  <si>
+    <t>Create detail schedule for studying CS 50 havard course</t>
+  </si>
+  <si>
+    <t>List all things I must learn in next 6 months to be good preparation for switching job</t>
+  </si>
+  <si>
+    <t>Run 20 km/day</t>
+  </si>
+  <si>
+    <t>Push up 30 times/day</t>
+  </si>
+  <si>
+    <t>Invite wife's parents to Dat's wedding</t>
+  </si>
+  <si>
+    <t>Ask mom about what to help prepare wedding</t>
+  </si>
+  <si>
+    <t>Learn automation test for Loan</t>
+  </si>
+  <si>
+    <t>Mediation 60 counts per day</t>
+  </si>
+  <si>
+    <t>10/03</t>
+  </si>
+  <si>
+    <t>Keep the soul flat. Do everything slow and carefully. Think before doing everything. Try to love CS. Do practise CS everytime.</t>
+  </si>
+  <si>
+    <t>13/03</t>
+  </si>
+  <si>
+    <t>10/03 &amp; 11/03</t>
+  </si>
+  <si>
+    <t>12/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +448,13 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -547,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,6 +754,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -708,37 +796,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,18 +1199,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="21" style="30" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="30" customWidth="1"/>
     <col min="5" max="5" width="22" style="37" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="33" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="31" customWidth="1"/>
@@ -1130,11 +1221,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="64">
+      <c r="C1" s="61">
         <v>2017</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1144,8 +1235,8 @@
       <c r="E2" s="37"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -1159,10 +1250,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1171,10 +1262,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1185,14 +1276,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1272,14 +1363,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1374,14 +1465,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1442,14 +1533,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1472,14 +1563,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1521,23 +1612,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1549,16 +1640,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1583,7 +1674,7 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -1606,20 +1697,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="52"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1636,20 +1727,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1670,20 +1761,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1702,7 +1793,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1721,16 +1812,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="53"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1739,10 +1830,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1825,9 +1916,14 @@
       <c r="E43" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
+      <c r="I43" s="65" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
@@ -1839,11 +1935,14 @@
         <v>82</v>
       </c>
       <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G44" s="43" t="s">
         <v>88</v>
       </c>
       <c r="H44" s="43"/>
+      <c r="I44" s="65"/>
     </row>
     <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
@@ -1855,11 +1954,14 @@
         <v>80</v>
       </c>
       <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G45" s="43" t="s">
         <v>91</v>
       </c>
       <c r="H45" s="43"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
@@ -1871,11 +1973,14 @@
         <v>84</v>
       </c>
       <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G46" s="43" t="s">
         <v>92</v>
       </c>
       <c r="H46" s="43"/>
+      <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
@@ -1889,7 +1994,9 @@
       <c r="E47" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="46" t="s">
+        <v>51</v>
+      </c>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
     </row>
@@ -1905,11 +2012,13 @@
       <c r="E48" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
       <c r="C49" s="44" t="s">
@@ -1921,11 +2030,13 @@
       <c r="E49" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="46"/>
+      <c r="F49" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
     </row>
-    <row r="50" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
       <c r="C50" s="44" t="s">
@@ -1943,7 +2054,7 @@
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
       <c r="C51" s="44" t="s">
@@ -1961,19 +2072,19 @@
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="42"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
     </row>
-    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
       <c r="C53" s="44" t="s">
@@ -1983,25 +2094,27 @@
       <c r="E53" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="46"/>
+      <c r="F53" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G53" s="43">
         <v>11</v>
       </c>
       <c r="H53" s="47"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="58"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="42"/>
       <c r="E54" s="45"/>
       <c r="F54" s="46"/>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44" t="s">
@@ -2017,7 +2130,7 @@
       <c r="G55" s="47"/>
       <c r="H55" s="43"/>
     </row>
-    <row r="56" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
       <c r="C56" s="44" t="s">
@@ -2033,7 +2146,7 @@
       <c r="G56" s="47"/>
       <c r="H56" s="43"/>
     </row>
-    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
       <c r="C57" s="44" t="s">
@@ -2043,18 +2156,191 @@
       <c r="E57" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
     </row>
+    <row r="58" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+    </row>
+    <row r="60" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="42"/>
+      <c r="E60" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="75"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="75"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="42"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="75"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="42"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="75"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="42"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="75"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="67"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="75"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+    </row>
+    <row r="68" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="42"/>
+      <c r="E68" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="46"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="42"/>
+      <c r="E69" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="46"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:H25"/>
-  <mergeCells count="19">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+  <mergeCells count="25">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="I60:I66"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="I43:I46"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -2064,11 +2350,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2079,7 +2365,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F58 F60:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Personal Agile.xlsx
+++ b/Personal Agile.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="Basic rules" sheetId="3" r:id="rId1"/>
     <sheet name="Sprint" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Schedule" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sprint!$A$3:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>Order</t>
   </si>
@@ -352,13 +353,46 @@
   </si>
   <si>
     <t>12/3</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Get up at 4h 30</t>
+  </si>
+  <si>
+    <t>Do the personal cleaning</t>
+  </si>
+  <si>
+    <t>Do some push up</t>
+  </si>
+  <si>
+    <t>Start study at 5 AM to 6:30 AM</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Start leave office at 6 PM</t>
+  </si>
+  <si>
+    <t>Go jogging from 6:45 pm to 7:30 PM</t>
+  </si>
+  <si>
+    <t>Having dinner from 7:45 PM to 8:30 PM.</t>
+  </si>
+  <si>
+    <t>Start study from 8:30 PM to 9:30 PM</t>
+  </si>
+  <si>
+    <t>Sleep from 9:30 PM to 4:30 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +489,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -602,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -754,6 +794,51 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -766,8 +851,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,51 +872,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1221,11 +1262,11 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="C1" s="61">
+      <c r="C1" s="76">
         <v>2017</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1236,7 +1277,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -1250,10 +1291,10 @@
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1262,10 +1303,10 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="35"/>
       <c r="E4" s="38"/>
       <c r="F4" s="12"/>
@@ -1276,14 +1317,14 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -1363,14 +1404,14 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1465,14 +1506,14 @@
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -1533,14 +1574,14 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1563,14 +1604,14 @@
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -1612,23 +1653,23 @@
     </row>
     <row r="25" spans="1:9" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="35"/>
       <c r="E26" s="38"/>
       <c r="F26" s="12"/>
@@ -1640,16 +1681,16 @@
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="23"/>
       <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="63" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1674,9 +1715,9 @@
       <c r="H28" s="49">
         <v>0.5</v>
       </c>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="1:9" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="26"/>
       <c r="C29" s="16" t="s">
@@ -1697,20 +1738,20 @@
       <c r="H29" s="49">
         <v>0.5</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="23"/>
       <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="63"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -1727,20 +1768,20 @@
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="63"/>
+      <c r="I31" s="64"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="42"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="63"/>
+      <c r="I32" s="64"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -1761,20 +1802,20 @@
       <c r="H33" s="47">
         <v>0.75</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="64"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="42"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -1793,7 +1834,7 @@
         <v>0.9</v>
       </c>
       <c r="H35" s="43"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -1812,16 +1853,16 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="43"/>
-      <c r="I36" s="64"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="35"/>
       <c r="E37" s="38"/>
       <c r="F37" s="12"/>
@@ -1830,10 +1871,10 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="23"/>
       <c r="E38" s="41"/>
       <c r="F38" s="25"/>
@@ -1921,7 +1962,7 @@
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
-      <c r="I43" s="65" t="s">
+      <c r="I43" s="70" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1942,7 +1983,7 @@
         <v>88</v>
       </c>
       <c r="H44" s="43"/>
-      <c r="I44" s="65"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
@@ -1961,9 +2002,9 @@
         <v>91</v>
       </c>
       <c r="H45" s="43"/>
-      <c r="I45" s="65"/>
-    </row>
-    <row r="46" spans="1:9" ht="99" x14ac:dyDescent="0.25">
+      <c r="I45" s="70"/>
+    </row>
+    <row r="46" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="C46" s="44" t="s">
@@ -1980,7 +2021,7 @@
         <v>92</v>
       </c>
       <c r="H46" s="43"/>
-      <c r="I46" s="65"/>
+      <c r="I46" s="70"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
@@ -2074,10 +2115,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="55"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="42"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
@@ -2104,10 +2145,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="55"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="42"/>
       <c r="E54" s="45"/>
       <c r="F54" s="46"/>
@@ -2162,26 +2203,26 @@
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
     </row>
-    <row r="58" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="68" t="s">
+    <row r="58" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="55"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="42"/>
       <c r="E59" s="45"/>
       <c r="F59" s="46"/>
@@ -2198,10 +2239,12 @@
       <c r="E60" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="46"/>
+      <c r="F60" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
-      <c r="I60" s="75" t="s">
+      <c r="I60" s="62" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2215,23 +2258,25 @@
       <c r="E61" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
-      <c r="I61" s="75"/>
+      <c r="I61" s="62"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="55"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="42"/>
       <c r="E62" s="45"/>
       <c r="F62" s="46"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
-      <c r="I62" s="75"/>
+      <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
@@ -2242,9 +2287,11 @@
       <c r="D63" s="42"/>
       <c r="E63" s="45"/>
       <c r="F63" s="46"/>
-      <c r="G63" s="43"/>
+      <c r="G63" s="43">
+        <v>3</v>
+      </c>
       <c r="H63" s="43"/>
-      <c r="I63" s="75"/>
+      <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
@@ -2255,9 +2302,11 @@
       <c r="D64" s="42"/>
       <c r="E64" s="45"/>
       <c r="F64" s="46"/>
-      <c r="G64" s="43"/>
+      <c r="G64" s="43">
+        <v>30</v>
+      </c>
       <c r="H64" s="43"/>
-      <c r="I64" s="75"/>
+      <c r="I64" s="62"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
@@ -2268,22 +2317,24 @@
       <c r="D65" s="42"/>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
-      <c r="G65" s="43"/>
+      <c r="G65" s="43">
+        <v>0</v>
+      </c>
       <c r="H65" s="43"/>
-      <c r="I65" s="75"/>
+      <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="67"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="42"/>
       <c r="E66" s="45"/>
       <c r="F66" s="46"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
-      <c r="I66" s="75"/>
+      <c r="I66" s="62"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
@@ -2306,7 +2357,7 @@
         <v>102</v>
       </c>
       <c r="D68" s="42"/>
-      <c r="E68" s="76" t="s">
+      <c r="E68" s="58" t="s">
         <v>109</v>
       </c>
       <c r="F68" s="46"/>
@@ -2330,17 +2381,11 @@
   </sheetData>
   <autoFilter ref="A3:H25"/>
   <mergeCells count="25">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="I60:I66"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B4:C4"/>
@@ -2350,11 +2395,17 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="I60:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2375,6 +2426,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="39.42578125" style="77" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
